--- a/va_facility_data_2025-02-20/Zephyrhills VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Zephyrhills%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Zephyrhills VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Zephyrhills%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3187fd75e5944ef5ab3ca920d30ae8d6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rac0d98f3992340589c16fe1cc5a748c3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3c234d574d0040ecb878f0bede1e54f7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2ee120eb506e424f96a88c6ceee631f3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra0cc0f8e8b2849dba60d5cedcc1a5961"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf905288713f643838578aac1a4bcfd2e"/>
   </x:sheets>
 </x:workbook>
 </file>
